--- a/nmadb/501216.xlsx
+++ b/nmadb/501216.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="8940"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="8940"/>
   </bookViews>
   <sheets>
     <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,20 +19,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="74">
   <si>
     <t>Study</t>
   </si>
   <si>
-    <t>tA</t>
-  </si>
-  <si>
-    <t>tB</t>
-  </si>
-  <si>
-    <t>smd</t>
-  </si>
-  <si>
     <t>se</t>
   </si>
   <si>
@@ -234,25 +225,29 @@
     <t>Zettle &amp; Rains 1989</t>
   </si>
   <si>
-    <t xml:space="preserve">0,502551
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,3035714
-</t>
-  </si>
-  <si>
     <t>Beneficial</t>
   </si>
   <si>
     <t>Outcome: change in patient's self-rating of depression symptoms</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t2</t>
+  </si>
+  <si>
+    <t>effect=smd</t>
+  </si>
+  <si>
+    <t>effect</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -309,15 +304,17 @@
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -378,7 +375,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -413,7 +410,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -590,56 +587,56 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="33.7109375" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="43.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -647,19 +644,19 @@
       <c r="C2">
         <v>2</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="4">
         <v>0.48</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="5">
         <v>0.22193879999999999</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -667,19 +664,19 @@
       <c r="C3">
         <v>3</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="4">
         <v>-0.13</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="4">
         <v>0.18877550000000001</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -687,19 +684,19 @@
       <c r="C4">
         <v>4</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="4">
         <v>-0.06</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="4">
         <v>0.30612240000000002</v>
       </c>
       <c r="F4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -707,23 +704,23 @@
       <c r="C5">
         <v>5</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="4">
         <v>-0.5</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="4">
         <v>0.40816330000000001</v>
       </c>
       <c r="F5">
         <v>4</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -731,25 +728,25 @@
       <c r="C6">
         <v>6</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="4">
         <v>-0.56999999999999995</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="4">
         <v>0.4183673</v>
       </c>
       <c r="F6">
         <v>4</v>
       </c>
       <c r="H6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -757,25 +754,25 @@
       <c r="C7">
         <v>6</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="4">
         <v>-0.11</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="4">
         <v>0.4183673</v>
       </c>
       <c r="F7">
         <v>4</v>
       </c>
       <c r="H7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I7">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -783,25 +780,25 @@
       <c r="C8">
         <v>7</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="4">
         <v>-0.04</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="4">
         <v>0.32142860000000001</v>
       </c>
       <c r="F8">
         <v>5</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I8">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -809,25 +806,25 @@
       <c r="C9">
         <v>8</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="4">
         <v>-0.1</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="5">
         <v>0.32397959999999998</v>
       </c>
       <c r="F9">
         <v>5</v>
       </c>
       <c r="H9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I9">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>7</v>
@@ -835,25 +832,25 @@
       <c r="C10">
         <v>8</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="4">
         <v>-0.06</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="4">
         <v>0.32908159999999997</v>
       </c>
       <c r="F10">
         <v>5</v>
       </c>
       <c r="H10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I10">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -861,25 +858,25 @@
       <c r="C11">
         <v>9</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="4">
         <v>-0.28999999999999998</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="4">
         <v>0.32142860000000001</v>
       </c>
       <c r="F11">
         <v>6</v>
       </c>
       <c r="H11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I11">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -887,25 +884,25 @@
       <c r="C12">
         <v>3</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="4">
         <v>0.2142857</v>
       </c>
       <c r="F12">
         <v>7</v>
       </c>
       <c r="H12" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I12">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -913,25 +910,25 @@
       <c r="C13">
         <v>9</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="4">
         <v>-0.13</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="4">
         <v>0.2142857</v>
       </c>
       <c r="F13">
         <v>7</v>
       </c>
       <c r="H13" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I13">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B14">
         <v>3</v>
@@ -939,25 +936,25 @@
       <c r="C14">
         <v>9</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="4">
         <v>-0.19</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="4">
         <v>0.2091837</v>
       </c>
       <c r="F14">
         <v>7</v>
       </c>
       <c r="H14" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I14">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -965,25 +962,25 @@
       <c r="C15">
         <v>10</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="4">
         <v>0.28999999999999998</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="4">
         <v>0.25255100000000003</v>
       </c>
       <c r="F15">
         <v>8</v>
       </c>
       <c r="H15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I15">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -991,25 +988,25 @@
       <c r="C16">
         <v>8</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="4">
         <v>0.13</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="4">
         <v>0.18367349999999999</v>
       </c>
       <c r="F16">
         <v>9</v>
       </c>
       <c r="H16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I16">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -1017,25 +1014,25 @@
       <c r="C17">
         <v>9</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="4">
         <v>0.21</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="4">
         <v>0.2933673</v>
       </c>
       <c r="F17">
         <v>10</v>
       </c>
       <c r="H17" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I17">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>11</v>
@@ -1043,25 +1040,25 @@
       <c r="C18">
         <v>1</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="4">
         <v>0.01</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="4">
         <v>0.2040816</v>
       </c>
       <c r="F18">
         <v>11</v>
       </c>
       <c r="H18" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I18">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B19">
         <v>10</v>
@@ -1069,25 +1066,25 @@
       <c r="C19">
         <v>1</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="4">
         <v>0.3</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="4">
         <v>0.4515306</v>
       </c>
       <c r="F19">
         <v>12</v>
       </c>
       <c r="H19" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I19">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B20">
         <v>10</v>
@@ -1095,25 +1092,25 @@
       <c r="C20">
         <v>12</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="4">
         <v>-0.14000000000000001</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="4">
         <v>0.44642860000000001</v>
       </c>
       <c r="F20">
         <v>12</v>
       </c>
       <c r="H20" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I20">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -1121,25 +1118,25 @@
       <c r="C21">
         <v>12</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="4">
         <v>-0.51</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="4">
         <v>0.45408159999999997</v>
       </c>
       <c r="F21">
         <v>12</v>
       </c>
       <c r="H21" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I21">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -1147,25 +1144,25 @@
       <c r="C22">
         <v>3</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="4">
         <v>-0.39</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="4">
         <v>0.28571429999999998</v>
       </c>
       <c r="F22">
         <v>13</v>
       </c>
       <c r="H22" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I22">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B23">
         <v>13</v>
@@ -1173,25 +1170,25 @@
       <c r="C23">
         <v>9</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="4">
         <v>-0.64</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="4">
         <v>0.33418369999999997</v>
       </c>
       <c r="F23">
         <v>14</v>
       </c>
       <c r="H23" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I23">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B24">
         <v>4</v>
@@ -1199,25 +1196,25 @@
       <c r="C24">
         <v>9</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="4">
         <v>-0.13</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="4">
         <v>0.34183669999999999</v>
       </c>
       <c r="F24">
         <v>15</v>
       </c>
       <c r="H24" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I24">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B25">
         <v>3</v>
@@ -1225,19 +1222,19 @@
       <c r="C25">
         <v>14</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="4">
         <v>0.5</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="4">
         <v>0.29591840000000003</v>
       </c>
       <c r="F25">
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -1245,19 +1242,19 @@
       <c r="C26">
         <v>15</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="4">
         <v>0.06</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="4">
         <v>0.38520409999999999</v>
       </c>
       <c r="F26">
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B27">
         <v>10</v>
@@ -1265,19 +1262,22 @@
       <c r="C27">
         <v>16</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="4">
         <v>0.14000000000000001</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="4">
         <v>0.22448979999999999</v>
       </c>
       <c r="F27">
         <v>18</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H27" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B28">
         <v>10</v>
@@ -1285,19 +1285,19 @@
       <c r="C28">
         <v>1</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="4">
         <v>0.51</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="4">
         <v>0.3265306</v>
       </c>
       <c r="F28">
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -1305,19 +1305,19 @@
       <c r="C29">
         <v>9</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="4">
         <v>0.27</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="4">
         <v>0.3316327</v>
       </c>
       <c r="F29">
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -1325,19 +1325,19 @@
       <c r="C30">
         <v>9</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="4">
         <v>0.05</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="4">
         <v>0.125</v>
       </c>
       <c r="F30">
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B31">
         <v>10</v>
@@ -1345,19 +1345,19 @@
       <c r="C31">
         <v>3</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="4">
         <v>1.23</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="4">
         <v>0.59438780000000002</v>
       </c>
       <c r="F31">
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B32">
         <v>8</v>
@@ -1365,19 +1365,19 @@
       <c r="C32">
         <v>9</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="4">
         <v>-0.56999999999999995</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="4">
         <v>0.36734689999999998</v>
       </c>
       <c r="F32">
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -1385,19 +1385,19 @@
       <c r="C33">
         <v>8</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="4">
         <v>-0.18</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="4">
         <v>0.15051020000000001</v>
       </c>
       <c r="F33">
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -1405,19 +1405,19 @@
       <c r="C34">
         <v>17</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="4">
         <v>-0.16</v>
       </c>
-      <c r="E34" s="2" t="s">
-        <v>72</v>
+      <c r="E34" s="4">
+        <v>0.30357139999999999</v>
       </c>
       <c r="F34">
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -1425,19 +1425,19 @@
       <c r="C35">
         <v>8</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="4">
         <v>0.5</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="4">
         <v>0.28571429999999998</v>
       </c>
       <c r="F35">
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -1445,19 +1445,19 @@
       <c r="C36">
         <v>9</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="4">
         <v>-0.05</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="4">
         <v>0.28061219999999998</v>
       </c>
       <c r="F36">
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B37">
         <v>8</v>
@@ -1465,19 +1465,19 @@
       <c r="C37">
         <v>9</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="4">
         <v>-0.54</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="4">
         <v>0.2933673</v>
       </c>
       <c r="F37">
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B38">
         <v>8</v>
@@ -1485,19 +1485,19 @@
       <c r="C38">
         <v>9</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="4">
         <v>0</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="4">
         <v>0.28571429999999998</v>
       </c>
       <c r="F38">
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B39">
         <v>10</v>
@@ -1505,19 +1505,19 @@
       <c r="C39">
         <v>3</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="4">
         <v>-0.73</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="4">
         <v>0.375</v>
       </c>
       <c r="F39">
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B40">
         <v>10</v>
@@ -1525,19 +1525,19 @@
       <c r="C40">
         <v>1</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="4">
         <v>-0.25</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="4">
         <v>0.44897959999999998</v>
       </c>
       <c r="F40">
         <v>29</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B41">
         <v>10</v>
@@ -1545,19 +1545,19 @@
       <c r="C41">
         <v>9</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="4">
         <v>-0.84</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="4">
         <v>0.47193879999999999</v>
       </c>
       <c r="F41">
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -1565,19 +1565,19 @@
       <c r="C42">
         <v>9</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="4">
         <v>-0.6</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="4">
         <v>0.4617347</v>
       </c>
       <c r="F42">
         <v>29</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B43">
         <v>10</v>
@@ -1585,19 +1585,19 @@
       <c r="C43">
         <v>9</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="6">
         <v>-0.53</v>
       </c>
-      <c r="E43" s="3">
+      <c r="E43" s="6">
         <v>0.33</v>
       </c>
       <c r="F43">
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -1605,19 +1605,19 @@
       <c r="C44">
         <v>14</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="4">
         <v>1.47</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="4">
         <v>0.41071429999999998</v>
       </c>
       <c r="F44">
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -1625,19 +1625,19 @@
       <c r="C45">
         <v>9</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="4">
         <v>-0.56999999999999995</v>
       </c>
-      <c r="E45" s="2">
+      <c r="E45" s="5">
         <v>0.32908159999999997</v>
       </c>
       <c r="F45">
         <v>32</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -1645,19 +1645,19 @@
       <c r="C46">
         <v>16</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="4">
         <v>0.6</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="4">
         <v>0.4183673</v>
       </c>
       <c r="F46">
         <v>33</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -1665,19 +1665,19 @@
       <c r="C47">
         <v>8</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="4">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="4">
         <v>0.26785710000000001</v>
       </c>
       <c r="F47">
         <v>34</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -1685,19 +1685,19 @@
       <c r="C48">
         <v>14</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="4">
         <v>-0.21</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="4">
         <v>0.380102</v>
       </c>
       <c r="F48">
         <v>35</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B49">
         <v>18</v>
@@ -1705,19 +1705,19 @@
       <c r="C49">
         <v>8</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="4">
         <v>-0.85</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="4">
         <v>0.43112240000000002</v>
       </c>
       <c r="F49">
         <v>36</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -1725,19 +1725,19 @@
       <c r="C50">
         <v>3</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="4">
         <v>-0.19</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="4">
         <v>0.26530609999999999</v>
       </c>
       <c r="F50">
         <v>37</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B51">
         <v>10</v>
@@ -1745,19 +1745,19 @@
       <c r="C51">
         <v>1</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="4">
         <v>1.1299999999999999</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="4">
         <v>0.5765306</v>
       </c>
       <c r="F51">
         <v>38</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -1765,19 +1765,19 @@
       <c r="C52">
         <v>3</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="4">
         <v>-0.68</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="4">
         <v>0.35969390000000001</v>
       </c>
       <c r="F52">
         <v>39</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -1785,19 +1785,19 @@
       <c r="C53">
         <v>19</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="4">
         <v>0.32</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="4">
         <v>0.30102040000000002</v>
       </c>
       <c r="F53">
         <v>40</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B54">
         <v>10</v>
@@ -1805,19 +1805,19 @@
       <c r="C54">
         <v>16</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="4">
         <v>-0.53</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="4">
         <v>0.31632650000000001</v>
       </c>
       <c r="F54">
         <v>41</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B55">
         <v>10</v>
@@ -1825,19 +1825,19 @@
       <c r="C55">
         <v>1</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="4">
         <v>-0.13</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="4">
         <v>0.255102</v>
       </c>
       <c r="F55">
         <v>42</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B56">
         <v>10</v>
@@ -1845,19 +1845,19 @@
       <c r="C56">
         <v>3</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="4">
         <v>-0.23</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="4">
         <v>0.25765310000000002</v>
       </c>
       <c r="F56">
         <v>42</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -1865,19 +1865,19 @@
       <c r="C57">
         <v>3</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="4">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="4">
         <v>0.25765310000000002</v>
       </c>
       <c r="F57">
         <v>42</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -1885,19 +1885,19 @@
       <c r="C58">
         <v>4</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="4">
         <v>-0.04</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="4">
         <v>0.21683669999999999</v>
       </c>
       <c r="F58">
         <v>43</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B59">
         <v>10</v>
@@ -1905,19 +1905,19 @@
       <c r="C59">
         <v>1</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="4">
         <v>-0.24</v>
       </c>
-      <c r="E59" s="2" t="s">
-        <v>71</v>
+      <c r="E59" s="4">
+        <v>0.50255099999999997</v>
       </c>
       <c r="F59">
         <v>44</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B60">
         <v>11</v>
@@ -1925,10 +1925,10 @@
       <c r="C60">
         <v>1</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="4">
         <v>-0.52</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="4">
         <v>0.44642860000000001</v>
       </c>
       <c r="F60">
